--- a/04 output tabellen/tabel_kkb_sd_20tm24_samenvatting.xlsx
+++ b/04 output tabellen/tabel_kkb_sd_20tm24_samenvatting.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$N$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$P$123</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">gbd_sdl_naam</t>
   </si>
@@ -32,7 +32,13 @@
     <t xml:space="preserve">dagelijkse producten</t>
   </si>
   <si>
-    <t xml:space="preserve">NDG_totaal</t>
+    <t xml:space="preserve">NDG recreatief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDG doelgericht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDG totaal</t>
   </si>
   <si>
     <t xml:space="preserve">modeartikelen</t>
@@ -107,10 +113,13 @@
     <t xml:space="preserve">Weesp</t>
   </si>
   <si>
-    <t xml:space="preserve">overig Amsterdam</t>
+    <t xml:space="preserve">Amsterdam</t>
   </si>
   <si>
-    <t xml:space="preserve">buiten Amsterdam</t>
+    <t xml:space="preserve">MRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overig NL</t>
   </si>
 </sst>
 </file>
@@ -485,3217 +494,3473 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2" t="n">
         <v>25</v>
       </c>
-      <c r="H2" t="n">
-        <v>46.27</v>
-      </c>
-      <c r="I2" t="n">
-        <v>17.67</v>
-      </c>
       <c r="J2" t="n">
-        <v>21.05</v>
+        <v>46</v>
       </c>
       <c r="K2" t="n">
-        <v>4.14</v>
+        <v>18</v>
       </c>
       <c r="L2" t="n">
-        <v>2.85</v>
+        <v>21</v>
       </c>
       <c r="M2" t="n">
-        <v>43.25</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>33.93</v>
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>43</v>
+      </c>
+      <c r="P2" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="F3" t="n">
-        <v>39.36</v>
-      </c>
-      <c r="G3" t="n">
-        <v>42.81</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
       <c r="H3" t="n">
-        <v>58.84</v>
+        <v>39</v>
       </c>
       <c r="I3" t="n">
-        <v>33.36</v>
+        <v>43</v>
       </c>
       <c r="J3" t="n">
-        <v>37.9</v>
+        <v>59</v>
       </c>
       <c r="K3" t="n">
-        <v>12.86</v>
+        <v>33</v>
       </c>
       <c r="L3" t="n">
-        <v>8.21</v>
+        <v>38</v>
       </c>
       <c r="M3" t="n">
-        <v>53.13</v>
+        <v>13</v>
       </c>
       <c r="N3" t="n">
-        <v>50.89</v>
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>36.97</v>
+        <v>37</v>
       </c>
       <c r="G4" t="n">
-        <v>37.3</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
+        <v>37</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37</v>
+      </c>
+      <c r="J4" t="n">
         <v>61</v>
       </c>
-      <c r="I4" t="n">
-        <v>28.86</v>
-      </c>
-      <c r="J4" t="n">
-        <v>38.72</v>
-      </c>
       <c r="K4" t="n">
-        <v>12.18</v>
+        <v>29</v>
       </c>
       <c r="L4" t="n">
-        <v>6.78</v>
+        <v>39</v>
       </c>
       <c r="M4" t="n">
-        <v>49.22</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
-        <v>47.66</v>
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>49</v>
+      </c>
+      <c r="P4" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="n">
+        <v>80</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" t="n">
+        <v>45</v>
+      </c>
+      <c r="I5" t="n">
+        <v>62</v>
+      </c>
+      <c r="J5" t="n">
+        <v>34</v>
+      </c>
+      <c r="K5" t="n">
+        <v>60</v>
+      </c>
+      <c r="L5" t="n">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>44.66</v>
-      </c>
-      <c r="G5" t="n">
-        <v>61.77</v>
-      </c>
-      <c r="H5" t="n">
-        <v>33.56</v>
-      </c>
-      <c r="I5" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="K5" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="L5" t="n">
-        <v>31.02</v>
-      </c>
       <c r="M5" t="n">
-        <v>54.78</v>
+        <v>39</v>
       </c>
       <c r="N5" t="n">
-        <v>30.99</v>
+        <v>31</v>
+      </c>
+      <c r="O5" t="n">
+        <v>55</v>
+      </c>
+      <c r="P5" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="F6" t="n">
-        <v>23.93</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20.87</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
       <c r="H6" t="n">
-        <v>47.33</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>14.14</v>
+        <v>21</v>
       </c>
       <c r="J6" t="n">
-        <v>26.58</v>
+        <v>47</v>
       </c>
       <c r="K6" t="n">
-        <v>6.06</v>
+        <v>14</v>
       </c>
       <c r="L6" t="n">
-        <v>3.04</v>
+        <v>27</v>
       </c>
       <c r="M6" t="n">
-        <v>35.75</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>36.51</v>
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>81</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="n">
+        <v>40</v>
+      </c>
+      <c r="I7" t="n">
+        <v>54</v>
+      </c>
+      <c r="J7" t="n">
+        <v>32</v>
+      </c>
+      <c r="K7" t="n">
+        <v>49</v>
+      </c>
+      <c r="L7" t="n">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="n">
-        <v>81.06</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>54.41</v>
-      </c>
-      <c r="H7" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="I7" t="n">
-        <v>49.25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="K7" t="n">
-        <v>35.96</v>
-      </c>
-      <c r="L7" t="n">
-        <v>34.07</v>
-      </c>
       <c r="M7" t="n">
-        <v>49.07</v>
+        <v>36</v>
       </c>
       <c r="N7" t="n">
-        <v>24.84</v>
+        <v>34</v>
+      </c>
+      <c r="O7" t="n">
+        <v>49</v>
+      </c>
+      <c r="P7" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="F8" t="n">
-        <v>32.91</v>
-      </c>
-      <c r="G8" t="n">
-        <v>32.04</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
       <c r="H8" t="n">
-        <v>51.43</v>
+        <v>33</v>
       </c>
       <c r="I8" t="n">
-        <v>26.52</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
-        <v>34.01</v>
+        <v>51</v>
       </c>
       <c r="K8" t="n">
-        <v>14.27</v>
+        <v>27</v>
       </c>
       <c r="L8" t="n">
-        <v>9.31</v>
+        <v>34</v>
       </c>
       <c r="M8" t="n">
-        <v>44.06</v>
+        <v>14</v>
       </c>
       <c r="N8" t="n">
-        <v>46.12</v>
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="n">
+        <v>83</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26</v>
+      </c>
+      <c r="H9" t="n">
+        <v>39</v>
+      </c>
+      <c r="I9" t="n">
+        <v>54</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26</v>
+      </c>
+      <c r="K9" t="n">
+        <v>46</v>
+      </c>
+      <c r="L9" t="n">
         <v>22</v>
       </c>
-      <c r="E9" t="n">
-        <v>82.72</v>
-      </c>
-      <c r="F9" t="n">
-        <v>38.63</v>
-      </c>
-      <c r="G9" t="n">
-        <v>54.14</v>
-      </c>
-      <c r="H9" t="n">
-        <v>25.62</v>
-      </c>
-      <c r="I9" t="n">
-        <v>45.67</v>
-      </c>
-      <c r="J9" t="n">
-        <v>21.87</v>
-      </c>
-      <c r="K9" t="n">
-        <v>37.37</v>
-      </c>
-      <c r="L9" t="n">
-        <v>35.35</v>
-      </c>
       <c r="M9" t="n">
-        <v>52.98</v>
+        <v>37</v>
       </c>
       <c r="N9" t="n">
-        <v>25.14</v>
+        <v>35</v>
+      </c>
+      <c r="O9" t="n">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>32.64</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>28.87</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>54.98</v>
+        <v>33</v>
       </c>
       <c r="I10" t="n">
-        <v>26.21</v>
+        <v>29</v>
       </c>
       <c r="J10" t="n">
-        <v>38.04</v>
+        <v>55</v>
       </c>
       <c r="K10" t="n">
-        <v>10.53</v>
+        <v>26</v>
       </c>
       <c r="L10" t="n">
-        <v>6.61</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
-        <v>38.25</v>
+        <v>11</v>
       </c>
       <c r="N10" t="n">
-        <v>44.42</v>
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>38</v>
+      </c>
+      <c r="P10" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>84</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" t="n">
+        <v>28</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17</v>
+      </c>
+      <c r="J11" t="n">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="n">
-        <v>84.11</v>
-      </c>
-      <c r="F11" t="n">
-        <v>27.66</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="H11" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="I11" t="n">
-        <v>46.72</v>
-      </c>
-      <c r="J11" t="n">
-        <v>17.43</v>
-      </c>
       <c r="K11" t="n">
-        <v>66.41</v>
+        <v>47</v>
       </c>
       <c r="L11" t="n">
-        <v>47.05</v>
+        <v>17</v>
       </c>
       <c r="M11" t="n">
-        <v>27.49</v>
+        <v>66</v>
       </c>
       <c r="N11" t="n">
-        <v>25.25</v>
+        <v>47</v>
+      </c>
+      <c r="O11" t="n">
+        <v>27</v>
+      </c>
+      <c r="P11" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F12" t="n">
-        <v>28.26</v>
-      </c>
-      <c r="G12" t="n">
-        <v>26.48</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
       <c r="H12" t="n">
-        <v>55.65</v>
+        <v>28</v>
       </c>
       <c r="I12" t="n">
-        <v>20.64</v>
+        <v>26</v>
       </c>
       <c r="J12" t="n">
-        <v>27.88</v>
+        <v>56</v>
       </c>
       <c r="K12" t="n">
-        <v>4.27</v>
+        <v>21</v>
       </c>
       <c r="L12" t="n">
-        <v>2.31</v>
+        <v>28</v>
       </c>
       <c r="M12" t="n">
-        <v>44.07</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>36.53</v>
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>80</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" t="n">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>14</v>
+      </c>
+      <c r="M13" t="n">
+        <v>60</v>
+      </c>
+      <c r="N13" t="n">
+        <v>44</v>
+      </c>
+      <c r="O13" t="n">
         <v>23</v>
       </c>
-      <c r="E13" t="n">
-        <v>80.05</v>
-      </c>
-      <c r="F13" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="I13" t="n">
-        <v>38.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>59.65</v>
-      </c>
-      <c r="L13" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="M13" t="n">
-        <v>23</v>
-      </c>
-      <c r="N13" t="n">
-        <v>25.3</v>
+      <c r="P13" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
       <c r="E14" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="F14" t="n">
-        <v>43.78</v>
-      </c>
-      <c r="G14" t="n">
-        <v>44.44</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
       <c r="H14" t="n">
-        <v>68.66</v>
+        <v>44</v>
       </c>
       <c r="I14" t="n">
-        <v>38.91</v>
+        <v>44</v>
       </c>
       <c r="J14" t="n">
-        <v>45.41</v>
+        <v>69</v>
       </c>
       <c r="K14" t="n">
-        <v>11.46</v>
+        <v>39</v>
       </c>
       <c r="L14" t="n">
-        <v>8.85</v>
+        <v>45</v>
       </c>
       <c r="M14" t="n">
-        <v>54.47</v>
+        <v>11</v>
       </c>
       <c r="N14" t="n">
-        <v>50.89</v>
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>54</v>
+      </c>
+      <c r="P14" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>85</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28</v>
+      </c>
+      <c r="H15" t="n">
+        <v>29</v>
+      </c>
+      <c r="I15" t="n">
+        <v>14</v>
+      </c>
+      <c r="J15" t="n">
+        <v>16</v>
+      </c>
+      <c r="K15" t="n">
+        <v>51</v>
+      </c>
+      <c r="L15" t="n">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="n">
-        <v>84.83</v>
-      </c>
-      <c r="F15" t="n">
-        <v>29.38</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="H15" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="I15" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>69.33</v>
-      </c>
-      <c r="L15" t="n">
-        <v>46.04</v>
-      </c>
       <c r="M15" t="n">
-        <v>28.15</v>
+        <v>69</v>
       </c>
       <c r="N15" t="n">
-        <v>28.48</v>
+        <v>46</v>
+      </c>
+      <c r="O15" t="n">
+        <v>28</v>
+      </c>
+      <c r="P15" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>39.08</v>
+        <v>36</v>
       </c>
       <c r="G16" t="n">
-        <v>38.55</v>
+        <v>42</v>
       </c>
       <c r="H16" t="n">
-        <v>67.47</v>
+        <v>39</v>
       </c>
       <c r="I16" t="n">
-        <v>26.08</v>
+        <v>39</v>
       </c>
       <c r="J16" t="n">
-        <v>45.43</v>
+        <v>67</v>
       </c>
       <c r="K16" t="n">
-        <v>9.68</v>
+        <v>26</v>
       </c>
       <c r="L16" t="n">
-        <v>5.34</v>
+        <v>45</v>
       </c>
       <c r="M16" t="n">
-        <v>50.45</v>
+        <v>10</v>
       </c>
       <c r="N16" t="n">
-        <v>50.41</v>
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>50</v>
+      </c>
+      <c r="P16" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="n">
+        <v>83</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17" t="n">
+        <v>37</v>
+      </c>
+      <c r="I17" t="n">
+        <v>27</v>
+      </c>
+      <c r="J17" t="n">
+        <v>38</v>
+      </c>
+      <c r="K17" t="n">
+        <v>53</v>
+      </c>
+      <c r="L17" t="n">
+        <v>22</v>
+      </c>
+      <c r="M17" t="n">
+        <v>80</v>
+      </c>
+      <c r="N17" t="n">
+        <v>85</v>
+      </c>
+      <c r="O17" t="n">
+        <v>26</v>
+      </c>
+      <c r="P17" t="n">
         <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="n">
-        <v>83.23</v>
-      </c>
-      <c r="F17" t="n">
-        <v>37.14</v>
-      </c>
-      <c r="G17" t="n">
-        <v>26.93</v>
-      </c>
-      <c r="H17" t="n">
-        <v>38.35</v>
-      </c>
-      <c r="I17" t="n">
-        <v>52.98</v>
-      </c>
-      <c r="J17" t="n">
-        <v>21.57</v>
-      </c>
-      <c r="K17" t="n">
-        <v>79.87</v>
-      </c>
-      <c r="L17" t="n">
-        <v>85.1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>25.68</v>
-      </c>
-      <c r="N17" t="n">
-        <v>24.11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18" t="n">
+        <v>22</v>
+      </c>
+      <c r="I18" t="n">
+        <v>22</v>
+      </c>
+      <c r="J18" t="n">
+        <v>42</v>
+      </c>
+      <c r="K18" t="n">
         <v>17</v>
       </c>
-      <c r="E18" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F18" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>22.21</v>
-      </c>
-      <c r="H18" t="n">
-        <v>42.32</v>
-      </c>
-      <c r="I18" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.27</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>17</v>
       </c>
       <c r="M18" t="n">
-        <v>45.1</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>32.59</v>
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>45</v>
+      </c>
+      <c r="P18" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
-        <v>76.27</v>
-      </c>
-      <c r="F19" t="n">
-        <v>29.73</v>
-      </c>
-      <c r="G19" t="n">
-        <v>20.98</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
       <c r="H19" t="n">
+        <v>30</v>
+      </c>
+      <c r="I19" t="n">
+        <v>21</v>
+      </c>
+      <c r="J19" t="n">
         <v>25</v>
       </c>
-      <c r="I19" t="n">
-        <v>42.05</v>
-      </c>
-      <c r="J19" t="n">
-        <v>16.12</v>
-      </c>
       <c r="K19" t="n">
-        <v>72.16</v>
+        <v>42</v>
       </c>
       <c r="L19" t="n">
-        <v>80.04</v>
+        <v>16</v>
       </c>
       <c r="M19" t="n">
-        <v>21.88</v>
+        <v>72</v>
       </c>
       <c r="N19" t="n">
-        <v>16.3</v>
+        <v>80</v>
+      </c>
+      <c r="O19" t="n">
+        <v>22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
       <c r="E20" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="F20" t="n">
-        <v>38.92</v>
-      </c>
-      <c r="G20" t="n">
-        <v>43.08</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
       <c r="H20" t="n">
-        <v>58.37</v>
+        <v>39</v>
       </c>
       <c r="I20" t="n">
-        <v>34.44</v>
+        <v>43</v>
       </c>
       <c r="J20" t="n">
-        <v>34.04</v>
+        <v>58</v>
       </c>
       <c r="K20" t="n">
-        <v>10.68</v>
+        <v>34</v>
       </c>
       <c r="L20" t="n">
-        <v>6.74</v>
+        <v>34</v>
       </c>
       <c r="M20" t="n">
-        <v>59.65</v>
+        <v>11</v>
       </c>
       <c r="N20" t="n">
-        <v>54.31</v>
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="n">
+        <v>79</v>
+      </c>
+      <c r="F21" t="n">
+        <v>28</v>
+      </c>
+      <c r="G21" t="n">
+        <v>29</v>
+      </c>
+      <c r="H21" t="n">
+        <v>29</v>
+      </c>
+      <c r="I21" t="n">
+        <v>22</v>
+      </c>
+      <c r="J21" t="n">
+        <v>18</v>
+      </c>
+      <c r="K21" t="n">
+        <v>40</v>
+      </c>
+      <c r="L21" t="n">
+        <v>17</v>
+      </c>
+      <c r="M21" t="n">
+        <v>66</v>
+      </c>
+      <c r="N21" t="n">
+        <v>80</v>
+      </c>
+      <c r="O21" t="n">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="n">
-        <v>79.22</v>
-      </c>
-      <c r="F21" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="G21" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="H21" t="n">
-        <v>17.79</v>
-      </c>
-      <c r="I21" t="n">
-        <v>39.51</v>
-      </c>
-      <c r="J21" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="K21" t="n">
-        <v>66.4</v>
-      </c>
-      <c r="L21" t="n">
-        <v>79.83</v>
-      </c>
-      <c r="M21" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="N21" t="n">
-        <v>14.41</v>
+      <c r="P21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E22" t="n">
-        <v>4.23</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>37.96</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>40.19</v>
+        <v>35</v>
       </c>
       <c r="H22" t="n">
-        <v>62.06</v>
+        <v>38</v>
       </c>
       <c r="I22" t="n">
-        <v>31.37</v>
+        <v>40</v>
       </c>
       <c r="J22" t="n">
-        <v>34.06</v>
+        <v>62</v>
       </c>
       <c r="K22" t="n">
-        <v>14.99</v>
+        <v>31</v>
       </c>
       <c r="L22" t="n">
-        <v>6.63</v>
+        <v>34</v>
       </c>
       <c r="M22" t="n">
-        <v>57.87</v>
+        <v>15</v>
       </c>
       <c r="N22" t="n">
-        <v>52.88</v>
+        <v>7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>58</v>
+      </c>
+      <c r="P22" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23" t="n">
-        <v>90.9</v>
-      </c>
-      <c r="F23" t="n">
-        <v>38.18</v>
-      </c>
-      <c r="G23" t="n">
-        <v>36.74</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
       <c r="H23" t="n">
-        <v>32.79</v>
+        <v>38</v>
       </c>
       <c r="I23" t="n">
-        <v>66.14</v>
+        <v>37</v>
       </c>
       <c r="J23" t="n">
-        <v>19.83</v>
+        <v>33</v>
       </c>
       <c r="K23" t="n">
-        <v>49.94</v>
+        <v>66</v>
       </c>
       <c r="L23" t="n">
-        <v>32.17</v>
+        <v>20</v>
       </c>
       <c r="M23" t="n">
-        <v>38.29</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>28.04</v>
+        <v>32</v>
+      </c>
+      <c r="O23" t="n">
+        <v>38</v>
+      </c>
+      <c r="P23" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24" t="n">
+        <v>23</v>
+      </c>
+      <c r="I24" t="n">
+        <v>23</v>
+      </c>
+      <c r="J24" t="n">
+        <v>46</v>
+      </c>
+      <c r="K24" t="n">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="F24" t="n">
-        <v>23.22</v>
-      </c>
-      <c r="G24" t="n">
-        <v>22.54</v>
-      </c>
-      <c r="H24" t="n">
-        <v>46.36</v>
-      </c>
-      <c r="I24" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="J24" t="n">
-        <v>19.66</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.17</v>
-      </c>
       <c r="L24" t="n">
-        <v>3.64</v>
+        <v>20</v>
       </c>
       <c r="M24" t="n">
-        <v>41.01</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>35.17</v>
+        <v>4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>41</v>
+      </c>
+      <c r="P24" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E25" t="n">
-        <v>87.14</v>
-      </c>
-      <c r="F25" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="G25" t="n">
-        <v>28.84</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
       <c r="H25" t="n">
-        <v>27.9</v>
+        <v>32</v>
       </c>
       <c r="I25" t="n">
-        <v>52.91</v>
+        <v>29</v>
       </c>
       <c r="J25" t="n">
-        <v>17.26</v>
+        <v>28</v>
       </c>
       <c r="K25" t="n">
-        <v>49.51</v>
+        <v>53</v>
       </c>
       <c r="L25" t="n">
-        <v>36.46</v>
+        <v>17</v>
       </c>
       <c r="M25" t="n">
-        <v>35.71</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>21.64</v>
+        <v>36</v>
+      </c>
+      <c r="O25" t="n">
+        <v>36</v>
+      </c>
+      <c r="P25" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26" t="n">
+        <v>38</v>
+      </c>
+      <c r="I26" t="n">
+        <v>40</v>
+      </c>
+      <c r="J26" t="n">
+        <v>56</v>
+      </c>
+      <c r="K26" t="n">
+        <v>31</v>
+      </c>
+      <c r="L26" t="n">
+        <v>39</v>
+      </c>
+      <c r="M26" t="n">
         <v>17</v>
       </c>
-      <c r="E26" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F26" t="n">
-        <v>38.22</v>
-      </c>
-      <c r="G26" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="H26" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>30.59</v>
-      </c>
-      <c r="J26" t="n">
-        <v>39.18</v>
-      </c>
-      <c r="K26" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="L26" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="M26" t="n">
-        <v>48.86</v>
-      </c>
       <c r="N26" t="n">
-        <v>52.47</v>
+        <v>8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>49</v>
+      </c>
+      <c r="P26" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="n">
+        <v>93</v>
+      </c>
+      <c r="F27" t="n">
+        <v>43</v>
+      </c>
+      <c r="G27" t="n">
+        <v>26</v>
+      </c>
+      <c r="H27" t="n">
+        <v>35</v>
+      </c>
+      <c r="I27" t="n">
+        <v>32</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26</v>
+      </c>
+      <c r="K27" t="n">
+        <v>59</v>
+      </c>
+      <c r="L27" t="n">
         <v>21</v>
       </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="n">
-        <v>92.68</v>
-      </c>
-      <c r="F27" t="n">
-        <v>35.24</v>
-      </c>
-      <c r="G27" t="n">
-        <v>32.06</v>
-      </c>
-      <c r="H27" t="n">
-        <v>25.85</v>
-      </c>
-      <c r="I27" t="n">
-        <v>59.23</v>
-      </c>
-      <c r="J27" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="K27" t="n">
-        <v>48.86</v>
-      </c>
-      <c r="L27" t="n">
-        <v>33.92</v>
-      </c>
       <c r="M27" t="n">
-        <v>39.17</v>
+        <v>49</v>
       </c>
       <c r="N27" t="n">
-        <v>21.13</v>
+        <v>34</v>
+      </c>
+      <c r="O27" t="n">
+        <v>39</v>
+      </c>
+      <c r="P27" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>36.85</v>
+        <v>35</v>
       </c>
       <c r="G28" t="n">
-        <v>35.04</v>
+        <v>39</v>
       </c>
       <c r="H28" t="n">
-        <v>59.57</v>
+        <v>37</v>
       </c>
       <c r="I28" t="n">
-        <v>27.02</v>
+        <v>35</v>
       </c>
       <c r="J28" t="n">
-        <v>42.03</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>15.29</v>
+        <v>27</v>
       </c>
       <c r="L28" t="n">
-        <v>7.32</v>
+        <v>42</v>
       </c>
       <c r="M28" t="n">
-        <v>48.14</v>
+        <v>15</v>
       </c>
       <c r="N28" t="n">
-        <v>47.35</v>
+        <v>7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>48</v>
+      </c>
+      <c r="P28" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E29" t="n">
-        <v>82.11</v>
-      </c>
-      <c r="F29" t="n">
-        <v>32.43</v>
-      </c>
-      <c r="G29" t="n">
-        <v>19.76</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
       <c r="H29" t="n">
-        <v>21.63</v>
+        <v>32</v>
       </c>
       <c r="I29" t="n">
-        <v>51.09</v>
+        <v>20</v>
       </c>
       <c r="J29" t="n">
-        <v>20.48</v>
+        <v>22</v>
       </c>
       <c r="K29" t="n">
-        <v>64.07</v>
+        <v>51</v>
       </c>
       <c r="L29" t="n">
-        <v>75.82</v>
+        <v>20</v>
       </c>
       <c r="M29" t="n">
-        <v>36.1</v>
+        <v>64</v>
       </c>
       <c r="N29" t="n">
-        <v>17.21</v>
+        <v>76</v>
+      </c>
+      <c r="O29" t="n">
+        <v>36</v>
+      </c>
+      <c r="P29" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30" t="n">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="F30" t="n">
-        <v>25.87</v>
-      </c>
-      <c r="G30" t="n">
-        <v>31.52</v>
-      </c>
-      <c r="H30" t="n">
-        <v>48.36</v>
-      </c>
       <c r="I30" t="n">
-        <v>18.09</v>
+        <v>32</v>
       </c>
       <c r="J30" t="n">
-        <v>19.75</v>
+        <v>48</v>
       </c>
       <c r="K30" t="n">
-        <v>3.49</v>
+        <v>18</v>
       </c>
       <c r="L30" t="n">
-        <v>2.91</v>
+        <v>20</v>
       </c>
       <c r="M30" t="n">
-        <v>43.61</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>33.81</v>
+        <v>3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>44</v>
+      </c>
+      <c r="P30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="n">
+        <v>81</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31" t="n">
+        <v>28</v>
+      </c>
+      <c r="I31" t="n">
+        <v>16</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15</v>
+      </c>
+      <c r="K31" t="n">
+        <v>44</v>
+      </c>
+      <c r="L31" t="n">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" t="n">
-        <v>80.58</v>
-      </c>
-      <c r="F31" t="n">
-        <v>28.34</v>
-      </c>
-      <c r="G31" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="H31" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="I31" t="n">
-        <v>44.43</v>
-      </c>
-      <c r="J31" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>62.96</v>
-      </c>
-      <c r="L31" t="n">
-        <v>74.42</v>
-      </c>
       <c r="M31" t="n">
-        <v>32.56</v>
+        <v>63</v>
       </c>
       <c r="N31" t="n">
-        <v>7.36</v>
+        <v>74</v>
+      </c>
+      <c r="O31" t="n">
+        <v>33</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
       <c r="E32" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="F32" t="n">
-        <v>43.53</v>
-      </c>
-      <c r="G32" t="n">
-        <v>50.29</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
       <c r="H32" t="n">
-        <v>65.59</v>
+        <v>44</v>
       </c>
       <c r="I32" t="n">
-        <v>36.03</v>
+        <v>50</v>
       </c>
       <c r="J32" t="n">
-        <v>41.61</v>
+        <v>66</v>
       </c>
       <c r="K32" t="n">
-        <v>12.09</v>
+        <v>36</v>
       </c>
       <c r="L32" t="n">
-        <v>7.09</v>
+        <v>42</v>
       </c>
       <c r="M32" t="n">
-        <v>54.53</v>
+        <v>12</v>
       </c>
       <c r="N32" t="n">
-        <v>57.63</v>
+        <v>7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>55</v>
+      </c>
+      <c r="P32" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E33" t="n">
-        <v>81.14</v>
+        <v>81</v>
       </c>
       <c r="F33" t="n">
-        <v>28.46</v>
+        <v>30</v>
       </c>
       <c r="G33" t="n">
-        <v>17.67</v>
+        <v>27</v>
       </c>
       <c r="H33" t="n">
-        <v>12.49</v>
+        <v>28</v>
       </c>
       <c r="I33" t="n">
-        <v>43.06</v>
+        <v>18</v>
       </c>
       <c r="J33" t="n">
-        <v>17.81</v>
+        <v>12</v>
       </c>
       <c r="K33" t="n">
-        <v>59.52</v>
+        <v>43</v>
       </c>
       <c r="L33" t="n">
-        <v>73.95</v>
+        <v>18</v>
       </c>
       <c r="M33" t="n">
-        <v>35.62</v>
+        <v>60</v>
       </c>
       <c r="N33" t="n">
-        <v>14.62</v>
+        <v>74</v>
+      </c>
+      <c r="O33" t="n">
+        <v>36</v>
+      </c>
+      <c r="P33" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E34" t="n">
-        <v>4.23</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="G34" t="n">
-        <v>40.23</v>
+        <v>39</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51</v>
+        <v>39</v>
       </c>
       <c r="I34" t="n">
-        <v>31.48</v>
+        <v>40</v>
       </c>
       <c r="J34" t="n">
-        <v>39.31</v>
+        <v>67</v>
       </c>
       <c r="K34" t="n">
-        <v>11.63</v>
+        <v>31</v>
       </c>
       <c r="L34" t="n">
-        <v>6.13</v>
+        <v>39</v>
       </c>
       <c r="M34" t="n">
-        <v>47.07</v>
+        <v>12</v>
       </c>
       <c r="N34" t="n">
-        <v>50.91</v>
+        <v>6</v>
+      </c>
+      <c r="O34" t="n">
+        <v>47</v>
+      </c>
+      <c r="P34" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E35" t="n">
-        <v>89.02</v>
-      </c>
-      <c r="F35" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="G35" t="n">
-        <v>36.42</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
       <c r="H35" t="n">
-        <v>52.03</v>
+        <v>43</v>
       </c>
       <c r="I35" t="n">
-        <v>57.83</v>
+        <v>36</v>
       </c>
       <c r="J35" t="n">
-        <v>31.27</v>
+        <v>52</v>
       </c>
       <c r="K35" t="n">
-        <v>83.31</v>
+        <v>58</v>
       </c>
       <c r="L35" t="n">
-        <v>38.93</v>
+        <v>31</v>
       </c>
       <c r="M35" t="n">
-        <v>35.51</v>
+        <v>83</v>
       </c>
       <c r="N35" t="n">
-        <v>36.88</v>
+        <v>39</v>
+      </c>
+      <c r="O35" t="n">
+        <v>36</v>
+      </c>
+      <c r="P35" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E36" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="F36" t="n">
-        <v>25.34</v>
-      </c>
-      <c r="G36" t="n">
-        <v>26.27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
       <c r="H36" t="n">
-        <v>39.22</v>
+        <v>25</v>
       </c>
       <c r="I36" t="n">
-        <v>20.62</v>
+        <v>26</v>
       </c>
       <c r="J36" t="n">
-        <v>22.17</v>
+        <v>39</v>
       </c>
       <c r="K36" t="n">
-        <v>4.24</v>
+        <v>21</v>
       </c>
       <c r="L36" t="n">
-        <v>3.93</v>
+        <v>22</v>
       </c>
       <c r="M36" t="n">
-        <v>48.18</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>36.57</v>
+        <v>4</v>
+      </c>
+      <c r="O36" t="n">
+        <v>48</v>
+      </c>
+      <c r="P36" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E37" t="n">
-        <v>81.57</v>
-      </c>
-      <c r="F37" t="n">
-        <v>39.59</v>
-      </c>
-      <c r="G37" t="n">
-        <v>32.1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
       <c r="H37" t="n">
-        <v>42.91</v>
+        <v>40</v>
       </c>
       <c r="I37" t="n">
-        <v>52.08</v>
+        <v>32</v>
       </c>
       <c r="J37" t="n">
-        <v>28.73</v>
+        <v>43</v>
       </c>
       <c r="K37" t="n">
-        <v>76.45</v>
+        <v>52</v>
       </c>
       <c r="L37" t="n">
-        <v>46.86</v>
+        <v>29</v>
       </c>
       <c r="M37" t="n">
-        <v>35.95</v>
+        <v>76</v>
       </c>
       <c r="N37" t="n">
-        <v>41.21</v>
+        <v>47</v>
+      </c>
+      <c r="O37" t="n">
+        <v>36</v>
+      </c>
+      <c r="P37" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
       <c r="E38" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="F38" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="G38" t="n">
-        <v>41.8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
       <c r="H38" t="n">
-        <v>50.5</v>
+        <v>36</v>
       </c>
       <c r="I38" t="n">
-        <v>32.67</v>
+        <v>42</v>
       </c>
       <c r="J38" t="n">
-        <v>33.09</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>8.34</v>
+        <v>33</v>
       </c>
       <c r="L38" t="n">
-        <v>8.42</v>
+        <v>33</v>
       </c>
       <c r="M38" t="n">
-        <v>52.4</v>
+        <v>8</v>
       </c>
       <c r="N38" t="n">
-        <v>42.82</v>
+        <v>8</v>
+      </c>
+      <c r="O38" t="n">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="n">
+        <v>87</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>34</v>
+      </c>
+      <c r="H39" t="n">
+        <v>35</v>
+      </c>
+      <c r="I39" t="n">
         <v>27</v>
       </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" t="n">
-        <v>87.04</v>
-      </c>
-      <c r="F39" t="n">
-        <v>35.33</v>
-      </c>
-      <c r="G39" t="n">
-        <v>27.21</v>
-      </c>
-      <c r="H39" t="n">
-        <v>35.86</v>
-      </c>
-      <c r="I39" t="n">
-        <v>50.38</v>
-      </c>
       <c r="J39" t="n">
-        <v>23.07</v>
+        <v>36</v>
       </c>
       <c r="K39" t="n">
+        <v>50</v>
+      </c>
+      <c r="L39" t="n">
+        <v>23</v>
+      </c>
+      <c r="M39" t="n">
         <v>77</v>
       </c>
-      <c r="L39" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="M39" t="n">
-        <v>28.82</v>
-      </c>
       <c r="N39" t="n">
-        <v>43.67</v>
+        <v>43</v>
+      </c>
+      <c r="O39" t="n">
+        <v>29</v>
+      </c>
+      <c r="P39" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E40" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>36.84</v>
+        <v>40</v>
       </c>
       <c r="G40" t="n">
-        <v>41.31</v>
+        <v>33</v>
       </c>
       <c r="H40" t="n">
-        <v>55.03</v>
+        <v>37</v>
       </c>
       <c r="I40" t="n">
-        <v>32.78</v>
+        <v>41</v>
       </c>
       <c r="J40" t="n">
-        <v>33.27</v>
+        <v>55</v>
       </c>
       <c r="K40" t="n">
-        <v>10.78</v>
+        <v>33</v>
       </c>
       <c r="L40" t="n">
-        <v>7.71</v>
+        <v>33</v>
       </c>
       <c r="M40" t="n">
-        <v>53.14</v>
+        <v>11</v>
       </c>
       <c r="N40" t="n">
-        <v>42.56</v>
+        <v>8</v>
+      </c>
+      <c r="O40" t="n">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41" t="n">
+        <v>21</v>
+      </c>
+      <c r="I41" t="n">
+        <v>23</v>
+      </c>
+      <c r="J41" t="n">
+        <v>41</v>
+      </c>
+      <c r="K41" t="n">
         <v>17</v>
       </c>
-      <c r="E41" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="F41" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="G41" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="H41" t="n">
-        <v>41.01</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="J41" t="n">
-        <v>13.91</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.52</v>
-      </c>
       <c r="L41" t="n">
-        <v>3.03</v>
+        <v>14</v>
       </c>
       <c r="M41" t="n">
-        <v>47.39</v>
+        <v>5</v>
       </c>
       <c r="N41" t="n">
-        <v>23.24</v>
+        <v>3</v>
+      </c>
+      <c r="O41" t="n">
+        <v>47</v>
+      </c>
+      <c r="P41" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E42" t="n">
-        <v>78.43</v>
-      </c>
-      <c r="F42" t="n">
-        <v>53.22</v>
-      </c>
-      <c r="G42" t="n">
-        <v>33.13</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
       <c r="H42" t="n">
-        <v>42.57</v>
+        <v>53</v>
       </c>
       <c r="I42" t="n">
-        <v>66.01</v>
+        <v>33</v>
       </c>
       <c r="J42" t="n">
-        <v>67.01</v>
+        <v>43</v>
       </c>
       <c r="K42" t="n">
-        <v>76.52</v>
+        <v>66</v>
       </c>
       <c r="L42" t="n">
-        <v>67.48</v>
+        <v>67</v>
       </c>
       <c r="M42" t="n">
-        <v>26.68</v>
+        <v>77</v>
       </c>
       <c r="N42" t="n">
-        <v>62.02</v>
+        <v>67</v>
+      </c>
+      <c r="O42" t="n">
+        <v>27</v>
+      </c>
+      <c r="P42" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
       <c r="E43" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="F43" t="n">
-        <v>39.15</v>
-      </c>
-      <c r="G43" t="n">
-        <v>45.77</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43"/>
       <c r="H43" t="n">
-        <v>56.09</v>
+        <v>39</v>
       </c>
       <c r="I43" t="n">
-        <v>33.64</v>
+        <v>46</v>
       </c>
       <c r="J43" t="n">
-        <v>31.6</v>
+        <v>56</v>
       </c>
       <c r="K43" t="n">
-        <v>15.15</v>
+        <v>34</v>
       </c>
       <c r="L43" t="n">
-        <v>11.32</v>
+        <v>32</v>
       </c>
       <c r="M43" t="n">
-        <v>63.31</v>
+        <v>15</v>
       </c>
       <c r="N43" t="n">
-        <v>42.97</v>
+        <v>11</v>
+      </c>
+      <c r="O43" t="n">
+        <v>63</v>
+      </c>
+      <c r="P43" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="n">
+        <v>69</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44" t="n">
+        <v>42</v>
+      </c>
+      <c r="I44" t="n">
+        <v>24</v>
+      </c>
+      <c r="J44" t="n">
+        <v>29</v>
+      </c>
+      <c r="K44" t="n">
+        <v>51</v>
+      </c>
+      <c r="L44" t="n">
+        <v>55</v>
+      </c>
+      <c r="M44" t="n">
+        <v>66</v>
+      </c>
+      <c r="N44" t="n">
+        <v>62</v>
+      </c>
+      <c r="O44" t="n">
         <v>19</v>
       </c>
-      <c r="D44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" t="n">
-        <v>69.39</v>
-      </c>
-      <c r="F44" t="n">
-        <v>41.51</v>
-      </c>
-      <c r="G44" t="n">
-        <v>23.56</v>
-      </c>
-      <c r="H44" t="n">
-        <v>29.43</v>
-      </c>
-      <c r="I44" t="n">
-        <v>50.94</v>
-      </c>
-      <c r="J44" t="n">
-        <v>55.41</v>
-      </c>
-      <c r="K44" t="n">
-        <v>65.84</v>
-      </c>
-      <c r="L44" t="n">
-        <v>61.89</v>
-      </c>
-      <c r="M44" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="N44" t="n">
-        <v>42.83</v>
+      <c r="P44" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" t="n">
+        <v>74</v>
+      </c>
+      <c r="F45" t="n">
+        <v>37</v>
+      </c>
+      <c r="G45" t="n">
+        <v>54</v>
+      </c>
+      <c r="H45" t="n">
+        <v>45</v>
+      </c>
+      <c r="I45" t="n">
+        <v>25</v>
+      </c>
+      <c r="J45" t="n">
+        <v>31</v>
+      </c>
+      <c r="K45" t="n">
+        <v>55</v>
+      </c>
+      <c r="L45" t="n">
+        <v>60</v>
+      </c>
+      <c r="M45" t="n">
+        <v>69</v>
+      </c>
+      <c r="N45" t="n">
+        <v>59</v>
+      </c>
+      <c r="O45" t="n">
         <v>28</v>
       </c>
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" t="n">
-        <v>73.79</v>
-      </c>
-      <c r="F45" t="n">
-        <v>44.81</v>
-      </c>
-      <c r="G45" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="H45" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="I45" t="n">
-        <v>54.57</v>
-      </c>
-      <c r="J45" t="n">
-        <v>59.7</v>
-      </c>
-      <c r="K45" t="n">
-        <v>69.09</v>
-      </c>
-      <c r="L45" t="n">
-        <v>59.31</v>
-      </c>
-      <c r="M45" t="n">
-        <v>28.27</v>
-      </c>
-      <c r="N45" t="n">
-        <v>48.47</v>
+      <c r="P45" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E46" t="n">
-        <v>5.48</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>34.87</v>
+        <v>37</v>
       </c>
       <c r="G46" t="n">
-        <v>37.33</v>
+        <v>32</v>
       </c>
       <c r="H46" t="n">
-        <v>54.65</v>
+        <v>35</v>
       </c>
       <c r="I46" t="n">
-        <v>30.46</v>
+        <v>37</v>
       </c>
       <c r="J46" t="n">
-        <v>30.32</v>
+        <v>55</v>
       </c>
       <c r="K46" t="n">
-        <v>12.43</v>
+        <v>30</v>
       </c>
       <c r="L46" t="n">
-        <v>10.07</v>
+        <v>30</v>
       </c>
       <c r="M46" t="n">
-        <v>53.9</v>
+        <v>12</v>
       </c>
       <c r="N46" t="n">
-        <v>38.13</v>
+        <v>10</v>
+      </c>
+      <c r="O46" t="n">
+        <v>54</v>
+      </c>
+      <c r="P46" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="n">
+        <v>80</v>
+      </c>
+      <c r="F47" t="n">
+        <v>30</v>
+      </c>
+      <c r="G47" t="n">
+        <v>22</v>
+      </c>
+      <c r="H47" t="n">
+        <v>26</v>
+      </c>
+      <c r="I47" t="n">
         <v>21</v>
       </c>
-      <c r="D47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" t="n">
-        <v>79.82</v>
-      </c>
-      <c r="F47" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="G47" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="I47" t="n">
-        <v>42.08</v>
-      </c>
       <c r="J47" t="n">
-        <v>14.48</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>76.14</v>
+        <v>42</v>
       </c>
       <c r="L47" t="n">
-        <v>50.23</v>
+        <v>14</v>
       </c>
       <c r="M47" t="n">
-        <v>29.69</v>
+        <v>76</v>
       </c>
       <c r="N47" t="n">
-        <v>20.8</v>
+        <v>50</v>
+      </c>
+      <c r="O47" t="n">
+        <v>30</v>
+      </c>
+      <c r="P47" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>35.52</v>
+        <v>40</v>
       </c>
       <c r="G48" t="n">
-        <v>42.52</v>
+        <v>31</v>
       </c>
       <c r="H48" t="n">
-        <v>57.59</v>
+        <v>36</v>
       </c>
       <c r="I48" t="n">
-        <v>29.56</v>
+        <v>43</v>
       </c>
       <c r="J48" t="n">
-        <v>29.76</v>
+        <v>58</v>
       </c>
       <c r="K48" t="n">
-        <v>4.72</v>
+        <v>30</v>
       </c>
       <c r="L48" t="n">
-        <v>7.13</v>
+        <v>30</v>
       </c>
       <c r="M48" t="n">
-        <v>56.17</v>
+        <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>39.86</v>
+        <v>7</v>
+      </c>
+      <c r="O48" t="n">
+        <v>56</v>
+      </c>
+      <c r="P48" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" t="n">
+        <v>18</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49" t="n">
+        <v>26</v>
+      </c>
+      <c r="I49" t="n">
+        <v>11</v>
+      </c>
+      <c r="J49" t="n">
+        <v>18</v>
+      </c>
+      <c r="K49" t="n">
         <v>22</v>
       </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" t="n">
-        <v>17.98</v>
-      </c>
-      <c r="F49" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="G49" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="H49" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="I49" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="J49" t="n">
-        <v>41.26</v>
-      </c>
-      <c r="K49" t="n">
-        <v>51.13</v>
-      </c>
       <c r="L49" t="n">
-        <v>58.37</v>
+        <v>41</v>
       </c>
       <c r="M49" t="n">
+        <v>51</v>
+      </c>
+      <c r="N49" t="n">
+        <v>58</v>
+      </c>
+      <c r="O49" t="n">
         <v>8</v>
       </c>
-      <c r="N49" t="n">
-        <v>26.46</v>
+      <c r="P49" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="n">
+        <v>11</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50" t="n">
+        <v>26</v>
+      </c>
+      <c r="I50" t="n">
+        <v>33</v>
+      </c>
+      <c r="J50" t="n">
         <v>15</v>
       </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="F50" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="G50" t="n">
-        <v>32.66</v>
-      </c>
-      <c r="H50" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="I50" t="n">
-        <v>20.06</v>
-      </c>
-      <c r="J50" t="n">
-        <v>34.22</v>
-      </c>
       <c r="K50" t="n">
-        <v>13.35</v>
+        <v>20</v>
       </c>
       <c r="L50" t="n">
-        <v>9.28</v>
+        <v>34</v>
       </c>
       <c r="M50" t="n">
-        <v>23.05</v>
+        <v>13</v>
       </c>
       <c r="N50" t="n">
-        <v>33.67</v>
+        <v>9</v>
+      </c>
+      <c r="O50" t="n">
+        <v>23</v>
+      </c>
+      <c r="P50" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51" t="n">
+        <v>21</v>
+      </c>
+      <c r="I51" t="n">
+        <v>26</v>
+      </c>
+      <c r="J51" t="n">
+        <v>7</v>
+      </c>
+      <c r="K51" t="n">
         <v>15</v>
       </c>
-      <c r="C51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="L51" t="n">
+        <v>29</v>
+      </c>
+      <c r="M51" t="n">
+        <v>6</v>
+      </c>
+      <c r="N51" t="n">
         <v>30</v>
       </c>
-      <c r="E51" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="F51" t="n">
-        <v>20.81</v>
-      </c>
-      <c r="G51" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="H51" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I51" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J51" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K51" t="n">
-        <v>6</v>
-      </c>
-      <c r="L51" t="n">
-        <v>29.79</v>
-      </c>
-      <c r="M51" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="N51" t="n">
-        <v>21.08</v>
+      <c r="O51" t="n">
+        <v>13</v>
+      </c>
+      <c r="P51" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="n">
+        <v>12</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52" t="n">
+        <v>34</v>
+      </c>
+      <c r="I52" t="n">
+        <v>40</v>
+      </c>
+      <c r="J52" t="n">
         <v>26</v>
       </c>
-      <c r="B52" t="s">
+      <c r="K52" t="n">
+        <v>23</v>
+      </c>
+      <c r="L52" t="n">
+        <v>50</v>
+      </c>
+      <c r="M52" t="n">
+        <v>25</v>
+      </c>
+      <c r="N52" t="n">
         <v>15</v>
       </c>
-      <c r="C52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="F52" t="n">
-        <v>34.04</v>
-      </c>
-      <c r="G52" t="n">
-        <v>40.29</v>
-      </c>
-      <c r="H52" t="n">
-        <v>26.33</v>
-      </c>
-      <c r="I52" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="J52" t="n">
-        <v>49.53</v>
-      </c>
-      <c r="K52" t="n">
-        <v>24.92</v>
-      </c>
-      <c r="L52" t="n">
-        <v>15.28</v>
-      </c>
-      <c r="M52" t="n">
-        <v>17.47</v>
-      </c>
-      <c r="N52" t="n">
-        <v>40.83</v>
+      <c r="O52" t="n">
+        <v>17</v>
+      </c>
+      <c r="P52" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E53" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="F53" t="n">
-        <v>35.64</v>
-      </c>
-      <c r="G53" t="n">
-        <v>50.17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53"/>
       <c r="H53" t="n">
-        <v>26.89</v>
+        <v>36</v>
       </c>
       <c r="I53" t="n">
-        <v>26.73</v>
+        <v>50</v>
       </c>
       <c r="J53" t="n">
-        <v>36.01</v>
+        <v>27</v>
       </c>
       <c r="K53" t="n">
-        <v>26.89</v>
+        <v>27</v>
       </c>
       <c r="L53" t="n">
-        <v>43.7</v>
+        <v>36</v>
       </c>
       <c r="M53" t="n">
-        <v>26.09</v>
+        <v>27</v>
       </c>
       <c r="N53" t="n">
-        <v>32.5</v>
+        <v>44</v>
+      </c>
+      <c r="O53" t="n">
+        <v>26</v>
+      </c>
+      <c r="P53" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54" t="n">
         <v>30</v>
       </c>
-      <c r="E54" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="F54" t="n">
-        <v>29.52</v>
-      </c>
-      <c r="G54" t="n">
-        <v>31.11</v>
-      </c>
-      <c r="H54" t="n">
-        <v>16.87</v>
-      </c>
       <c r="I54" t="n">
-        <v>12.65</v>
+        <v>31</v>
       </c>
       <c r="J54" t="n">
-        <v>44.57</v>
+        <v>17</v>
       </c>
       <c r="K54" t="n">
-        <v>40.23</v>
+        <v>13</v>
       </c>
       <c r="L54" t="n">
-        <v>50.4</v>
+        <v>45</v>
       </c>
       <c r="M54" t="n">
-        <v>17.71</v>
+        <v>40</v>
       </c>
       <c r="N54" t="n">
-        <v>30.84</v>
+        <v>50</v>
+      </c>
+      <c r="O54" t="n">
+        <v>18</v>
+      </c>
+      <c r="P54" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55" t="n">
+        <v>13</v>
+      </c>
+      <c r="I55" t="n">
+        <v>24</v>
+      </c>
+      <c r="J55" t="n">
+        <v>9</v>
+      </c>
+      <c r="K55" t="n">
+        <v>8</v>
+      </c>
+      <c r="L55" t="n">
+        <v>8</v>
+      </c>
+      <c r="M55" t="n">
+        <v>8</v>
+      </c>
+      <c r="N55" t="n">
+        <v>22</v>
+      </c>
+      <c r="O55" t="n">
         <v>16</v>
       </c>
-      <c r="D55" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="F55" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="G55" t="n">
-        <v>23.85</v>
-      </c>
-      <c r="H55" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8.39</v>
-      </c>
-      <c r="J55" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="K55" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="L55" t="n">
-        <v>21.68</v>
-      </c>
-      <c r="M55" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="N55" t="n">
-        <v>4.99</v>
+      <c r="P55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E56" t="n">
-        <v>94.18</v>
-      </c>
-      <c r="F56" t="n">
-        <v>65.89</v>
-      </c>
-      <c r="G56" t="n">
-        <v>63.9</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56"/>
       <c r="H56" t="n">
-        <v>50.29</v>
+        <v>66</v>
       </c>
       <c r="I56" t="n">
-        <v>75.54</v>
+        <v>64</v>
       </c>
       <c r="J56" t="n">
-        <v>63.08</v>
+        <v>50</v>
       </c>
       <c r="K56" t="n">
-        <v>90.26</v>
+        <v>76</v>
       </c>
       <c r="L56" t="n">
-        <v>87.23</v>
+        <v>63</v>
       </c>
       <c r="M56" t="n">
-        <v>53.01</v>
+        <v>90</v>
       </c>
       <c r="N56" t="n">
-        <v>58.87</v>
+        <v>87</v>
+      </c>
+      <c r="O56" t="n">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E57" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="F57" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="G57" t="n">
-        <v>10.33</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57"/>
       <c r="H57" t="n">
-        <v>15.58</v>
+        <v>23</v>
       </c>
       <c r="I57" t="n">
-        <v>22.56</v>
+        <v>10</v>
       </c>
       <c r="J57" t="n">
-        <v>35.96</v>
+        <v>16</v>
       </c>
       <c r="K57" t="n">
-        <v>47.57</v>
+        <v>23</v>
       </c>
       <c r="L57" t="n">
-        <v>50.18</v>
+        <v>36</v>
       </c>
       <c r="M57" t="n">
-        <v>5.87</v>
+        <v>48</v>
       </c>
       <c r="N57" t="n">
-        <v>25.18</v>
+        <v>50</v>
+      </c>
+      <c r="O57" t="n">
+        <v>6</v>
+      </c>
+      <c r="P57" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58" t="n">
+        <v>21</v>
+      </c>
+      <c r="I58" t="n">
+        <v>25</v>
+      </c>
+      <c r="J58" t="n">
+        <v>14</v>
+      </c>
+      <c r="K58" t="n">
+        <v>18</v>
+      </c>
+      <c r="L58" t="n">
+        <v>30</v>
+      </c>
+      <c r="M58" t="n">
+        <v>15</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9</v>
+      </c>
+      <c r="O58" t="n">
+        <v>14</v>
+      </c>
+      <c r="P58" t="n">
         <v>24</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="F58" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="G58" t="n">
-        <v>24.51</v>
-      </c>
-      <c r="H58" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="J58" t="n">
-        <v>30.09</v>
-      </c>
-      <c r="K58" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="L58" t="n">
-        <v>8.96</v>
-      </c>
-      <c r="M58" t="n">
-        <v>13.55</v>
-      </c>
-      <c r="N58" t="n">
-        <v>23.83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59" t="n">
+        <v>16</v>
+      </c>
+      <c r="I59" t="n">
         <v>18</v>
       </c>
-      <c r="C59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F59" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="G59" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10.7</v>
-      </c>
       <c r="J59" t="n">
-        <v>24.38</v>
+        <v>5</v>
       </c>
       <c r="K59" t="n">
-        <v>9.37</v>
+        <v>11</v>
       </c>
       <c r="L59" t="n">
-        <v>26.46</v>
+        <v>24</v>
       </c>
       <c r="M59" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="N59" t="n">
-        <v>9.32</v>
+        <v>26</v>
+      </c>
+      <c r="O59" t="n">
+        <v>10</v>
+      </c>
+      <c r="P59" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="n">
+        <v>10</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60" t="n">
+        <v>21</v>
+      </c>
+      <c r="I60" t="n">
         <v>26</v>
       </c>
-      <c r="B60" t="s">
+      <c r="J60" t="n">
+        <v>16</v>
+      </c>
+      <c r="K60" t="n">
+        <v>15</v>
+      </c>
+      <c r="L60" t="n">
+        <v>28</v>
+      </c>
+      <c r="M60" t="n">
         <v>18</v>
       </c>
-      <c r="C60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="F60" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="G60" t="n">
-        <v>26.28</v>
-      </c>
-      <c r="H60" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="J60" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="K60" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="L60" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="M60" t="n">
-        <v>11.92</v>
-      </c>
       <c r="N60" t="n">
-        <v>28.93</v>
+        <v>13</v>
+      </c>
+      <c r="O60" t="n">
+        <v>12</v>
+      </c>
+      <c r="P60" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E61" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="F61" t="n">
-        <v>27.47</v>
-      </c>
-      <c r="G61" t="n">
-        <v>37.54</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61"/>
       <c r="H61" t="n">
-        <v>15.69</v>
+        <v>27</v>
       </c>
       <c r="I61" t="n">
-        <v>20.24</v>
+        <v>38</v>
       </c>
       <c r="J61" t="n">
-        <v>28.65</v>
+        <v>16</v>
       </c>
       <c r="K61" t="n">
-        <v>27.67</v>
+        <v>20</v>
       </c>
       <c r="L61" t="n">
-        <v>40.6</v>
+        <v>29</v>
       </c>
       <c r="M61" t="n">
-        <v>21.48</v>
+        <v>28</v>
       </c>
       <c r="N61" t="n">
-        <v>19.6</v>
+        <v>41</v>
+      </c>
+      <c r="O61" t="n">
+        <v>21</v>
+      </c>
+      <c r="P61" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E62" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F62" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="G62" t="n">
-        <v>21.52</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62"/>
       <c r="H62" t="n">
-        <v>14.1</v>
+        <v>23</v>
       </c>
       <c r="I62" t="n">
-        <v>13.75</v>
+        <v>22</v>
       </c>
       <c r="J62" t="n">
-        <v>34.32</v>
+        <v>14</v>
       </c>
       <c r="K62" t="n">
-        <v>28.22</v>
+        <v>14</v>
       </c>
       <c r="L62" t="n">
-        <v>44.01</v>
+        <v>34</v>
       </c>
       <c r="M62" t="n">
-        <v>13.69</v>
+        <v>28</v>
       </c>
       <c r="N62" t="n">
-        <v>20.98</v>
+        <v>44</v>
+      </c>
+      <c r="O62" t="n">
+        <v>14</v>
+      </c>
+      <c r="P62" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8</v>
+      </c>
+      <c r="K63" t="n">
+        <v>6</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>8</v>
+      </c>
+      <c r="N63" t="n">
         <v>19</v>
       </c>
-      <c r="D63" t="s">
-        <v>30</v>
-      </c>
-      <c r="E63" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F63" t="n">
-        <v>9.53</v>
-      </c>
-      <c r="G63" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="H63" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="I63" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="J63" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="K63" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="L63" t="n">
-        <v>19.46</v>
-      </c>
-      <c r="M63" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="N63" t="n">
-        <v>6.72</v>
+      <c r="O63" t="n">
+        <v>11</v>
+      </c>
+      <c r="P63" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E64" t="n">
-        <v>89.93</v>
-      </c>
-      <c r="F64" t="n">
-        <v>53.56</v>
-      </c>
-      <c r="G64" t="n">
-        <v>48.8</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64"/>
       <c r="H64" t="n">
-        <v>38.63</v>
+        <v>54</v>
       </c>
       <c r="I64" t="n">
-        <v>62.47</v>
+        <v>49</v>
       </c>
       <c r="J64" t="n">
-        <v>50.19</v>
+        <v>39</v>
       </c>
       <c r="K64" t="n">
-        <v>82.25</v>
+        <v>62</v>
       </c>
       <c r="L64" t="n">
-        <v>83.4</v>
+        <v>50</v>
       </c>
       <c r="M64" t="n">
-        <v>44.69</v>
+        <v>82</v>
       </c>
       <c r="N64" t="n">
-        <v>43.71</v>
+        <v>83</v>
+      </c>
+      <c r="O64" t="n">
+        <v>45</v>
+      </c>
+      <c r="P64" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
         <v>22</v>
       </c>
-      <c r="B65" t="s">
-        <v>20</v>
-      </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" t="n">
+        <v>15</v>
+      </c>
+      <c r="F65" t="n">
+        <v>16</v>
+      </c>
+      <c r="G65" t="n">
         <v>30</v>
       </c>
-      <c r="E65" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="F65" t="n">
-        <v>22.28</v>
-      </c>
-      <c r="G65" t="n">
-        <v>11.36</v>
-      </c>
       <c r="H65" t="n">
-        <v>16.65</v>
+        <v>22</v>
       </c>
       <c r="I65" t="n">
-        <v>24.62</v>
+        <v>11</v>
       </c>
       <c r="J65" t="n">
-        <v>29.08</v>
+        <v>17</v>
       </c>
       <c r="K65" t="n">
-        <v>44.54</v>
+        <v>25</v>
       </c>
       <c r="L65" t="n">
-        <v>47.09</v>
+        <v>29</v>
       </c>
       <c r="M65" t="n">
+        <v>45</v>
+      </c>
+      <c r="N65" t="n">
+        <v>47</v>
+      </c>
+      <c r="O65" t="n">
         <v>6</v>
       </c>
-      <c r="N65" t="n">
-        <v>24.14</v>
+      <c r="P65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="n">
+        <v>13</v>
+      </c>
+      <c r="F66" t="n">
+        <v>21</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20</v>
+      </c>
+      <c r="H66" t="n">
+        <v>20</v>
+      </c>
+      <c r="I66" t="n">
         <v>24</v>
       </c>
-      <c r="B66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="F66" t="n">
-        <v>20.41</v>
-      </c>
-      <c r="G66" t="n">
-        <v>23.54</v>
-      </c>
-      <c r="H66" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="I66" t="n">
-        <v>19.47</v>
-      </c>
       <c r="J66" t="n">
-        <v>24.88</v>
+        <v>15</v>
       </c>
       <c r="K66" t="n">
-        <v>13.91</v>
+        <v>19</v>
       </c>
       <c r="L66" t="n">
-        <v>7.94</v>
+        <v>25</v>
       </c>
       <c r="M66" t="n">
-        <v>16.7</v>
+        <v>14</v>
       </c>
       <c r="N66" t="n">
-        <v>25.34</v>
+        <v>8</v>
+      </c>
+      <c r="O66" t="n">
+        <v>17</v>
+      </c>
+      <c r="P66" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E67" t="n">
-        <v>5.73</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
-        <v>16.92</v>
+        <v>16</v>
       </c>
       <c r="G67" t="n">
-        <v>22.31</v>
+        <v>18</v>
       </c>
       <c r="H67" t="n">
-        <v>6.77</v>
+        <v>17</v>
       </c>
       <c r="I67" t="n">
-        <v>10.64</v>
+        <v>22</v>
       </c>
       <c r="J67" t="n">
-        <v>23.85</v>
+        <v>7</v>
       </c>
       <c r="K67" t="n">
-        <v>3.64</v>
+        <v>11</v>
       </c>
       <c r="L67" t="n">
-        <v>25.38</v>
+        <v>24</v>
       </c>
       <c r="M67" t="n">
-        <v>12.78</v>
+        <v>4</v>
       </c>
       <c r="N67" t="n">
-        <v>8.88</v>
+        <v>25</v>
+      </c>
+      <c r="O67" t="n">
+        <v>13</v>
+      </c>
+      <c r="P67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11</v>
+      </c>
+      <c r="F68" t="n">
+        <v>25</v>
+      </c>
+      <c r="G68" t="n">
+        <v>25</v>
+      </c>
+      <c r="H68" t="n">
+        <v>25</v>
+      </c>
+      <c r="I68" t="n">
+        <v>34</v>
+      </c>
+      <c r="J68" t="n">
+        <v>16</v>
+      </c>
+      <c r="K68" t="n">
+        <v>18</v>
+      </c>
+      <c r="L68" t="n">
+        <v>32</v>
+      </c>
+      <c r="M68" t="n">
         <v>21</v>
       </c>
-      <c r="D68" t="s">
-        <v>30</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="F68" t="n">
-        <v>25.13</v>
-      </c>
-      <c r="G68" t="n">
-        <v>33.81</v>
-      </c>
-      <c r="H68" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="I68" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="J68" t="n">
-        <v>32.31</v>
-      </c>
-      <c r="K68" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="L68" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="M68" t="n">
-        <v>14.73</v>
-      </c>
       <c r="N68" t="n">
-        <v>28.22</v>
+        <v>13</v>
+      </c>
+      <c r="O68" t="n">
+        <v>15</v>
+      </c>
+      <c r="P68" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E69" t="n">
-        <v>4.23</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>14.59</v>
+        <v>7</v>
       </c>
       <c r="G69" t="n">
-        <v>8.21</v>
+        <v>23</v>
       </c>
       <c r="H69" t="n">
-        <v>7.95</v>
+        <v>15</v>
       </c>
       <c r="I69" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="J69" t="n">
-        <v>32.33</v>
+        <v>8</v>
       </c>
       <c r="K69" t="n">
-        <v>11.22</v>
+        <v>5</v>
       </c>
       <c r="L69" t="n">
-        <v>16.52</v>
+        <v>32</v>
       </c>
       <c r="M69" t="n">
-        <v>4.55</v>
+        <v>11</v>
       </c>
       <c r="N69" t="n">
-        <v>16.36</v>
+        <v>17</v>
+      </c>
+      <c r="O69" t="n">
+        <v>5</v>
+      </c>
+      <c r="P69" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
         <v>23</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" t="n">
+        <v>11</v>
+      </c>
+      <c r="F70" t="n">
+        <v>29</v>
+      </c>
+      <c r="G70" t="n">
+        <v>23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>26</v>
+      </c>
+      <c r="I70" t="n">
+        <v>42</v>
+      </c>
+      <c r="J70" t="n">
+        <v>16</v>
+      </c>
+      <c r="K70" t="n">
         <v>20</v>
       </c>
-      <c r="C70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="F70" t="n">
-        <v>26.47</v>
-      </c>
-      <c r="G70" t="n">
-        <v>42.19</v>
-      </c>
-      <c r="H70" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="I70" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="J70" t="n">
-        <v>23.97</v>
-      </c>
-      <c r="K70" t="n">
-        <v>17.67</v>
-      </c>
       <c r="L70" t="n">
-        <v>40.89</v>
+        <v>24</v>
       </c>
       <c r="M70" t="n">
-        <v>20.31</v>
+        <v>18</v>
       </c>
       <c r="N70" t="n">
-        <v>17.03</v>
+        <v>41</v>
+      </c>
+      <c r="O70" t="n">
+        <v>20</v>
+      </c>
+      <c r="P70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>16</v>
+      </c>
+      <c r="G71" t="n">
         <v>25</v>
       </c>
-      <c r="B71" t="s">
+      <c r="H71" t="n">
         <v>20</v>
       </c>
-      <c r="C71" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="F71" t="n">
-        <v>20.17</v>
-      </c>
-      <c r="G71" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="H71" t="n">
-        <v>12.36</v>
-      </c>
       <c r="I71" t="n">
-        <v>10.4</v>
+        <v>22</v>
       </c>
       <c r="J71" t="n">
-        <v>25.36</v>
+        <v>12</v>
       </c>
       <c r="K71" t="n">
-        <v>28.74</v>
+        <v>10</v>
       </c>
       <c r="L71" t="n">
-        <v>44.68</v>
+        <v>25</v>
       </c>
       <c r="M71" t="n">
-        <v>10.88</v>
+        <v>29</v>
       </c>
       <c r="N71" t="n">
-        <v>25.75</v>
+        <v>45</v>
+      </c>
+      <c r="O71" t="n">
+        <v>11</v>
+      </c>
+      <c r="P71" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" t="n">
+        <v>8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>13</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+      <c r="I72" t="n">
         <v>21</v>
       </c>
-      <c r="D72" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="F72" t="n">
-        <v>9.62</v>
-      </c>
-      <c r="G72" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4.13</v>
-      </c>
       <c r="J72" t="n">
-        <v>2.62</v>
+        <v>5</v>
       </c>
       <c r="K72" t="n">
-        <v>6.26</v>
+        <v>4</v>
       </c>
       <c r="L72" t="n">
-        <v>20.52</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>13.08</v>
+        <v>6</v>
       </c>
       <c r="N72" t="n">
-        <v>6.83</v>
+        <v>21</v>
+      </c>
+      <c r="O72" t="n">
+        <v>13</v>
+      </c>
+      <c r="P72" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E73" t="n">
-        <v>93.74</v>
+        <v>94</v>
       </c>
       <c r="F73" t="n">
-        <v>54.31</v>
+        <v>56</v>
       </c>
       <c r="G73" t="n">
-        <v>52.78</v>
+        <v>52</v>
       </c>
       <c r="H73" t="n">
-        <v>34.8</v>
+        <v>54</v>
       </c>
       <c r="I73" t="n">
-        <v>65.15</v>
+        <v>53</v>
       </c>
       <c r="J73" t="n">
-        <v>47.78</v>
+        <v>35</v>
       </c>
       <c r="K73" t="n">
-        <v>80.98</v>
+        <v>65</v>
       </c>
       <c r="L73" t="n">
-        <v>82.03</v>
+        <v>48</v>
       </c>
       <c r="M73" t="n">
-        <v>47.83</v>
+        <v>81</v>
       </c>
       <c r="N73" t="n">
-        <v>46.11</v>
+        <v>82</v>
+      </c>
+      <c r="O73" t="n">
+        <v>48</v>
+      </c>
+      <c r="P73" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E74" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="F74" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="G74" t="n">
-        <v>6.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>3.78</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>9.94</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>3.44</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>7.57</v>
+        <v>6</v>
       </c>
       <c r="M74" t="n">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="N74" t="n">
-        <v>6.03</v>
+        <v>3</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3703,87 +3968,91 @@
         <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E75" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="F75" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="G75" t="n">
-        <v>18.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75"/>
       <c r="H75" t="n">
-        <v>4.56</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>9.85</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>26.8</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>2.51</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>6.17</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
-        <v>9.62</v>
+        <v>5</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E76" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F76" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="G76" t="n">
-        <v>11.2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76"/>
       <c r="H76" t="n">
-        <v>2.14</v>
+        <v>12</v>
       </c>
       <c r="I76" t="n">
-        <v>6.44</v>
+        <v>14</v>
       </c>
       <c r="J76" t="n">
-        <v>17.26</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
-        <v>6.45</v>
+        <v>9</v>
       </c>
       <c r="L76" t="n">
-        <v>27.35</v>
+        <v>22</v>
       </c>
       <c r="M76" t="n">
-        <v>3.06</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>5.46</v>
+        <v>4</v>
+      </c>
+      <c r="O76" t="n">
+        <v>4</v>
+      </c>
+      <c r="P76" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3791,131 +4060,137 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E77" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F77" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="G77" t="n">
-        <v>8.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77"/>
       <c r="H77" t="n">
-        <v>3.67</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>7.86</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>10.22</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>7.51</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>5.99</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
-        <v>2.82</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>8.15</v>
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E78" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="F78" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="G78" t="n">
-        <v>6.51</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78"/>
       <c r="H78" t="n">
-        <v>1.82</v>
+        <v>8</v>
       </c>
       <c r="I78" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="J78" t="n">
-        <v>18.69</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
-        <v>2.43</v>
+        <v>5</v>
       </c>
       <c r="L78" t="n">
-        <v>6.94</v>
+        <v>11</v>
       </c>
       <c r="M78" t="n">
-        <v>2.36</v>
+        <v>6</v>
       </c>
       <c r="N78" t="n">
-        <v>5.72</v>
+        <v>25</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E79" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F79" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="G79" t="n">
-        <v>9.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79"/>
       <c r="H79" t="n">
-        <v>3.97</v>
+        <v>3</v>
       </c>
       <c r="I79" t="n">
-        <v>5.02</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>15.93</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>6.67</v>
+        <v>2</v>
       </c>
       <c r="L79" t="n">
-        <v>13.79</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>5.95</v>
+        <v>2</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -3923,175 +4198,183 @@
         <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E80" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="F80" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="G80" t="n">
-        <v>20.31</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80"/>
       <c r="H80" t="n">
-        <v>7.27</v>
+        <v>5</v>
       </c>
       <c r="I80" t="n">
-        <v>8.82</v>
+        <v>5</v>
       </c>
       <c r="J80" t="n">
-        <v>10.63</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>11.14</v>
+        <v>6</v>
       </c>
       <c r="L80" t="n">
-        <v>7.81</v>
+        <v>6</v>
       </c>
       <c r="M80" t="n">
-        <v>9.8</v>
+        <v>7</v>
       </c>
       <c r="N80" t="n">
-        <v>9.74</v>
+        <v>5</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2</v>
+      </c>
+      <c r="P80" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E81" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="F81" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="G81" t="n">
-        <v>11.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81"/>
       <c r="H81" t="n">
-        <v>3.45</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>15.87</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>5.61</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
-        <v>9.92</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>3.73</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>7.21</v>
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
         <v>18</v>
       </c>
-      <c r="C82" t="s">
-        <v>19</v>
-      </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E82" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="G82" t="n">
-        <v>3.22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82"/>
       <c r="H82" t="n">
-        <v>1.12</v>
+        <v>6</v>
       </c>
       <c r="I82" t="n">
-        <v>1.66</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>7.79</v>
+        <v>2</v>
       </c>
       <c r="K82" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
-        <v>6.45</v>
+        <v>15</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>3.86</v>
+        <v>6</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
         <v>18</v>
       </c>
-      <c r="C83" t="s">
-        <v>19</v>
-      </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E83" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="F83" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="G83" t="n">
-        <v>11.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83"/>
       <c r="H83" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>5.86</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
-        <v>19.75</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>2.48</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>4.28</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>4.92</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>5.57</v>
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -4099,268 +4382,280 @@
         <v>27</v>
       </c>
       <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
         <v>18</v>
       </c>
-      <c r="C84" t="s">
-        <v>19</v>
-      </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E84" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="F84" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="G84" t="n">
-        <v>8.42</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84"/>
       <c r="H84" t="n">
-        <v>1.87</v>
+        <v>7</v>
       </c>
       <c r="I84" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
       <c r="J84" t="n">
-        <v>13.81</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
-        <v>5.84</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
-        <v>18.28</v>
+        <v>13</v>
       </c>
       <c r="M84" t="n">
-        <v>1.15</v>
+        <v>5</v>
       </c>
       <c r="N84" t="n">
-        <v>6.65</v>
+        <v>10</v>
+      </c>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
         <v>18</v>
       </c>
-      <c r="C85" t="s">
-        <v>19</v>
-      </c>
       <c r="D85" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E85" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F85" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="G85" t="n">
-        <v>7.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85"/>
       <c r="H85" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>12.13</v>
+        <v>2</v>
       </c>
       <c r="K85" t="n">
-        <v>7.03</v>
+        <v>2</v>
       </c>
       <c r="L85" t="n">
-        <v>5.33</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>6.07</v>
+        <v>4</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
         <v>18</v>
       </c>
-      <c r="C86" t="s">
-        <v>19</v>
-      </c>
       <c r="D86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E86" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F86" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="G86" t="n">
-        <v>5.25</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86"/>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I86" t="n">
-        <v>2.77</v>
+        <v>16</v>
       </c>
       <c r="J86" t="n">
-        <v>12.06</v>
+        <v>6</v>
       </c>
       <c r="K86" t="n">
-        <v>1.22</v>
+        <v>7</v>
       </c>
       <c r="L86" t="n">
-        <v>6.64</v>
+        <v>8</v>
       </c>
       <c r="M86" t="n">
-        <v>1.05</v>
+        <v>10</v>
       </c>
       <c r="N86" t="n">
-        <v>4.21</v>
+        <v>6</v>
+      </c>
+      <c r="O86" t="n">
+        <v>9</v>
+      </c>
+      <c r="P86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" t="s">
         <v>18</v>
       </c>
-      <c r="C87" t="s">
-        <v>19</v>
-      </c>
       <c r="D87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E87" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="F87" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="G87" t="n">
-        <v>9.22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87"/>
       <c r="H87" t="n">
-        <v>1.81</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
-        <v>9.24</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>5.52</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>11.55</v>
+        <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>4.91</v>
+        <v>2</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
         <v>18</v>
       </c>
-      <c r="C88" t="s">
-        <v>19</v>
-      </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E88" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="F88" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="G88" t="n">
-        <v>15.48</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88"/>
       <c r="H88" t="n">
-        <v>6.57</v>
+        <v>7</v>
       </c>
       <c r="I88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J88" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>11.15</v>
+        <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>7.33</v>
+        <v>12</v>
       </c>
       <c r="M88" t="n">
-        <v>6.72</v>
+        <v>5</v>
       </c>
       <c r="N88" t="n">
-        <v>7.48</v>
+        <v>8</v>
+      </c>
+      <c r="O88" t="n">
+        <v>3</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" t="s">
         <v>18</v>
       </c>
-      <c r="C89" t="s">
-        <v>19</v>
-      </c>
       <c r="D89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E89" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="F89" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="G89" t="n">
-        <v>8.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89"/>
       <c r="H89" t="n">
-        <v>2.53</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>4.18</v>
+        <v>3</v>
       </c>
       <c r="J89" t="n">
-        <v>11.93</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>4.88</v>
+        <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>8.38</v>
+        <v>4</v>
       </c>
       <c r="M89" t="n">
-        <v>2.18</v>
+        <v>1</v>
       </c>
       <c r="N89" t="n">
-        <v>5.41</v>
+        <v>2</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -4369,37 +4664,39 @@
         <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E90" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F90" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="G90" t="n">
-        <v>5.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90"/>
       <c r="H90" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>3.49</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>11.01</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>7.56</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>10.94</v>
+        <v>4</v>
       </c>
       <c r="M90" t="n">
-        <v>2.77</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>6.3</v>
+        <v>3</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4413,42 +4710,44 @@
         <v>21</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E91" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F91" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="G91" t="n">
-        <v>13.88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91"/>
       <c r="H91" t="n">
-        <v>5.39</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>9.64</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>24.49</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>5.61</v>
+        <v>4</v>
       </c>
       <c r="M91" t="n">
-        <v>4.48</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
-        <v>7.38</v>
+        <v>3</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
@@ -4457,37 +4756,39 @@
         <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E92" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="F92" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="G92" t="n">
-        <v>9.17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92"/>
       <c r="H92" t="n">
-        <v>2.34</v>
+        <v>8</v>
       </c>
       <c r="I92" t="n">
-        <v>6.19</v>
+        <v>9</v>
       </c>
       <c r="J92" t="n">
-        <v>19.83</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
-        <v>8.58</v>
+        <v>5</v>
       </c>
       <c r="L92" t="n">
-        <v>24.05</v>
+        <v>16</v>
       </c>
       <c r="M92" t="n">
-        <v>5.27</v>
+        <v>2</v>
       </c>
       <c r="N92" t="n">
-        <v>4.89</v>
+        <v>3</v>
+      </c>
+      <c r="O92" t="n">
+        <v>4</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -4501,37 +4802,39 @@
         <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E93" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="F93" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="G93" t="n">
-        <v>8.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93"/>
       <c r="H93" t="n">
-        <v>4.88</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>7.19</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>10.57</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>8.14</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>7.08</v>
+        <v>4</v>
       </c>
       <c r="M93" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>6.25</v>
+        <v>1</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -4545,42 +4848,44 @@
         <v>21</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E94" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F94" t="n">
-        <v>23.61</v>
-      </c>
-      <c r="G94" t="n">
-        <v>28.56</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94"/>
       <c r="H94" t="n">
-        <v>30.1</v>
+        <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>23.55</v>
+        <v>6</v>
       </c>
       <c r="J94" t="n">
-        <v>23.43</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
-        <v>7.91</v>
+        <v>3</v>
       </c>
       <c r="L94" t="n">
-        <v>26.11</v>
+        <v>10</v>
       </c>
       <c r="M94" t="n">
-        <v>9.6</v>
+        <v>5</v>
       </c>
       <c r="N94" t="n">
-        <v>22.97</v>
+        <v>16</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
@@ -4589,42 +4894,44 @@
         <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E95" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="F95" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="G95" t="n">
-        <v>5.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95"/>
       <c r="H95" t="n">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>9.41</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>3.33</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>7.72</v>
+        <v>4</v>
       </c>
       <c r="M95" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>4.09</v>
+        <v>2</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
@@ -4633,37 +4940,39 @@
         <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E96" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F96" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="G96" t="n">
-        <v>10.66</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96"/>
       <c r="H96" t="n">
-        <v>2.23</v>
+        <v>5</v>
       </c>
       <c r="I96" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="J96" t="n">
-        <v>11.86</v>
+        <v>2</v>
       </c>
       <c r="K96" t="n">
-        <v>7.09</v>
+        <v>3</v>
       </c>
       <c r="L96" t="n">
-        <v>14.08</v>
+        <v>8</v>
       </c>
       <c r="M96" t="n">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="N96" t="n">
-        <v>5.76</v>
+        <v>3</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -4677,42 +4986,44 @@
         <v>21</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E97" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="F97" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="G97" t="n">
-        <v>16.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97"/>
       <c r="H97" t="n">
-        <v>9.39</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>10.85</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>7.37</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>12.22</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>10.11</v>
+        <v>4</v>
       </c>
       <c r="M97" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>6.57</v>
+        <v>2</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
@@ -4721,41 +5032,1265 @@
         <v>21</v>
       </c>
       <c r="D98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2</v>
+      </c>
+      <c r="L98" t="n">
+        <v>10</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>4</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+      <c r="I100" t="n">
+        <v>6</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2</v>
+      </c>
+      <c r="L100" t="n">
+        <v>7</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="n">
+        <v>10</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="n">
+        <v>12</v>
+      </c>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+      <c r="I102" t="n">
+        <v>12</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4</v>
+      </c>
+      <c r="K102" t="n">
+        <v>6</v>
+      </c>
+      <c r="L102" t="n">
+        <v>6</v>
+      </c>
+      <c r="M102" t="n">
+        <v>10</v>
+      </c>
+      <c r="N102" t="n">
+        <v>6</v>
+      </c>
+      <c r="O102" t="n">
+        <v>6</v>
+      </c>
+      <c r="P102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3</v>
+      </c>
+      <c r="L104" t="n">
+        <v>9</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="n">
+        <v>6</v>
+      </c>
+      <c r="O104" t="n">
+        <v>2</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>6</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" t="n">
+        <v>5</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="n">
+        <v>7</v>
+      </c>
+      <c r="O107" t="n">
+        <v>2</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7</v>
+      </c>
+      <c r="G108" t="n">
+        <v>12</v>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3</v>
+      </c>
+      <c r="K108" t="n">
+        <v>6</v>
+      </c>
+      <c r="L108" t="n">
+        <v>19</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3</v>
+      </c>
+      <c r="O108" t="n">
+        <v>3</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+      <c r="I109" t="n">
+        <v>4</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2</v>
+      </c>
+      <c r="K109" t="n">
+        <v>3</v>
+      </c>
+      <c r="L109" t="n">
+        <v>6</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>29</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5</v>
+      </c>
+      <c r="G110" t="n">
+        <v>10</v>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>4</v>
+      </c>
+      <c r="L110" t="n">
+        <v>12</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="n">
+        <v>20</v>
+      </c>
+      <c r="O110" t="n">
+        <v>3</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2</v>
+      </c>
+      <c r="L111" t="n">
+        <v>8</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="n">
+        <v>4</v>
+      </c>
+      <c r="O111" t="n">
+        <v>2</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4</v>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+      <c r="I112" t="n">
+        <v>5</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3</v>
+      </c>
+      <c r="K112" t="n">
+        <v>4</v>
+      </c>
+      <c r="L112" t="n">
+        <v>5</v>
+      </c>
+      <c r="M112" t="n">
+        <v>6</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4</v>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2</v>
+      </c>
+      <c r="K113" t="n">
+        <v>3</v>
+      </c>
+      <c r="L113" t="n">
+        <v>6</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="n">
+        <v>4</v>
+      </c>
+      <c r="O113" t="n">
+        <v>2</v>
+      </c>
+      <c r="P113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
         <v>31</v>
       </c>
-      <c r="E98" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="F98" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="G98" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="H98" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="J98" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="K98" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L98" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="M98" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="N98" t="n">
-        <v>6.23</v>
+      <c r="B114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12</v>
+      </c>
+      <c r="F114" t="n">
+        <v>21</v>
+      </c>
+      <c r="G114" t="n">
+        <v>19</v>
+      </c>
+      <c r="H114" t="n">
+        <v>20</v>
+      </c>
+      <c r="I114" t="n">
+        <v>24</v>
+      </c>
+      <c r="J114" t="n">
+        <v>29</v>
+      </c>
+      <c r="K114" t="n">
+        <v>23</v>
+      </c>
+      <c r="L114" t="n">
+        <v>17</v>
+      </c>
+      <c r="M114" t="n">
+        <v>6</v>
+      </c>
+      <c r="N114" t="n">
+        <v>19</v>
+      </c>
+      <c r="O114" t="n">
+        <v>9</v>
+      </c>
+      <c r="P114" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>6</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>7</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1</v>
+      </c>
+      <c r="P115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2</v>
+      </c>
+      <c r="L116" t="n">
+        <v>6</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>3</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>3</v>
+      </c>
+      <c r="M117" t="n">
+        <v>3</v>
+      </c>
+      <c r="N117" t="n">
+        <v>4</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1</v>
+      </c>
+      <c r="P117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4</v>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+      <c r="I118" t="n">
+        <v>7</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>5</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3</v>
+      </c>
+      <c r="N118" t="n">
+        <v>8</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1</v>
+      </c>
+      <c r="P118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5</v>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2</v>
+      </c>
+      <c r="L119" t="n">
+        <v>7</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="n">
+        <v>6</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1</v>
+      </c>
+      <c r="P119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" t="n">
+        <v>10</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5</v>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+      <c r="I120" t="n">
+        <v>13</v>
+      </c>
+      <c r="J120" t="n">
+        <v>7</v>
+      </c>
+      <c r="K120" t="n">
+        <v>9</v>
+      </c>
+      <c r="L120" t="n">
+        <v>4</v>
+      </c>
+      <c r="M120" t="n">
+        <v>9</v>
+      </c>
+      <c r="N120" t="n">
+        <v>7</v>
+      </c>
+      <c r="O120" t="n">
+        <v>2</v>
+      </c>
+      <c r="P120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3</v>
+      </c>
+      <c r="G121" t="n">
+        <v>3</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+      <c r="I121" t="n">
+        <v>4</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2</v>
+      </c>
+      <c r="L121" t="n">
+        <v>3</v>
+      </c>
+      <c r="M121" t="n">
+        <v>3</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="n">
+        <v>3</v>
+      </c>
+      <c r="P121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5</v>
+      </c>
+      <c r="G122" t="n">
+        <v>6</v>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3</v>
+      </c>
+      <c r="K122" t="n">
+        <v>4</v>
+      </c>
+      <c r="L122" t="n">
+        <v>8</v>
+      </c>
+      <c r="M122" t="n">
+        <v>4</v>
+      </c>
+      <c r="N122" t="n">
+        <v>6</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1</v>
+      </c>
+      <c r="P122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2</v>
+      </c>
+      <c r="L123" t="n">
+        <v>5</v>
+      </c>
+      <c r="M123" t="n">
+        <v>3</v>
+      </c>
+      <c r="N123" t="n">
+        <v>5</v>
+      </c>
+      <c r="O123" t="n">
+        <v>2</v>
+      </c>
+      <c r="P123" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N98"/>
+  <autoFilter ref="A1:P123"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
